--- a/biology/Zoologie/Baorisa_hieroglyphica/Baorisa_hieroglyphica.xlsx
+++ b/biology/Zoologie/Baorisa_hieroglyphica/Baorisa_hieroglyphica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baorisa hieroglyphica est une espèce de lépidoptères de la famille des Noctuidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la publication originale, l'espèce n'est pas décrite[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la publication originale, l'espèce n'est pas décrite,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est holométabole[4], c'est-à-dire qu'elle se métamorphose de l'état d'œuf à l'état de papillon et passe par quatre stades différents au cours de sa vie (œuf, chenille, pupe, adulte). À l'état larvaire, elle possède des stemmata[4], de petits yeux permettant seulement de filtrer la lumière et non pas de former des images. À l'âge adulte, elle possède un système auditif avec des tympans, un système visuel avec des yeux composés superposés[n 1] et des ocelles,  des ailes, un système sensoriel d'écholocation, un rythme circadien avec un comportement nocturne[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est holométabole, c'est-à-dire qu'elle se métamorphose de l'état d'œuf à l'état de papillon et passe par quatre stades différents au cours de sa vie (œuf, chenille, pupe, adulte). À l'état larvaire, elle possède des stemmata, de petits yeux permettant seulement de filtrer la lumière et non pas de former des images. À l'âge adulte, elle possède un système auditif avec des tympans, un système visuel avec des yeux composés superposés[n 1] et des ocelles,  des ailes, un système sensoriel d'écholocation, un rythme circadien avec un comportement nocturne.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est asiatique, présente en Malaisie[4],[5], en Inde[4],[5], en Indonésie[5] et en Chine[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est asiatique, présente en Malaisie en Inde en Indonésie et en Chine.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Baorisa hieroglyphica Moore, 1882[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Baorisa hieroglyphica Moore, 1882.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Weihua. Li, Fen. Gao et Jinghong. Zhang, « Baorisa hieroglyphica Moore, new record from China », Entomotaxonomia. Junio, vol. 1012,‎ 1988, p. 106[7].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Weihua. Li, Fen. Gao et Jinghong. Zhang, « Baorisa hieroglyphica Moore, new record from China », Entomotaxonomia. Junio, vol. 1012,‎ 1988, p. 106.</t>
         </is>
       </c>
     </row>
